--- a/Protein Assays/HNM WB Protein Assay.xlsx
+++ b/Protein Assays/HNM WB Protein Assay.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="231" documentId="8_{A366A24B-99D9-49E4-B71B-B0956D72CEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53A2D85B-83A9-407A-98A7-7316C6055E52}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A72CBACF-C73F-4B89-8D80-3E38C5F68AA3}"/>
+    <workbookView xWindow="3270" yWindow="720" windowWidth="19035" windowHeight="14880" xr2:uid="{A72CBACF-C73F-4B89-8D80-3E38C5F68AA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1554,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BFD150-E62F-4196-A9DA-D891FF606EAF}">
   <dimension ref="C1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3:X38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1704,7 +1704,7 @@
         <v>0.17800000000000002</v>
       </c>
       <c r="W3">
-        <f>$N$12*(V3*V3)+$N$13*(V3)+$N$14</f>
+        <f t="shared" ref="W3:W38" si="0">$N$12*(V3*V3)+$N$13*(V3)+$N$14</f>
         <v>0.86811699160000011</v>
       </c>
       <c r="X3">
@@ -1762,19 +1762,19 @@
         <v>0.26800000000000002</v>
       </c>
       <c r="U4">
-        <f t="shared" ref="U4:U38" si="0">AVERAGE(S4:T4)</f>
+        <f t="shared" ref="U4:U38" si="1">AVERAGE(S4:T4)</f>
         <v>0.251</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V38" si="1">U4-$G$20</f>
+        <f t="shared" ref="V4:V38" si="2">U4-$G$20</f>
         <v>0.16450000000000001</v>
       </c>
       <c r="W4">
-        <f>$N$12*(V4*V4)+$N$13*(V4)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.79916114147500006</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:X38" si="2">W4*5</f>
+        <f t="shared" ref="X4:X38" si="3">W4*5</f>
         <v>3.9958057073750002</v>
       </c>
     </row>
@@ -1828,19 +1828,19 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="U5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2545</v>
       </c>
       <c r="V5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16800000000000001</v>
       </c>
       <c r="W5">
-        <f>$N$12*(V5*V5)+$N$13*(V5)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.81695493760000004</v>
       </c>
       <c r="X5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0847746880000004</v>
       </c>
     </row>
@@ -1894,19 +1894,19 @@
         <v>0.29299999999999998</v>
       </c>
       <c r="U6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27300000000000002</v>
       </c>
       <c r="V6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18650000000000003</v>
       </c>
       <c r="W6">
-        <f>$N$12*(V6*V6)+$N$13*(V6)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.91198054927500016</v>
       </c>
       <c r="X6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.559902746375001</v>
       </c>
     </row>
@@ -1960,19 +1960,19 @@
         <v>0.254</v>
       </c>
       <c r="U7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.249</v>
       </c>
       <c r="V7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16250000000000001</v>
       </c>
       <c r="W7">
-        <f>$N$12*(V7*V7)+$N$13*(V7)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.78901954687499998</v>
       </c>
       <c r="X7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.945097734375</v>
       </c>
     </row>
@@ -2026,19 +2026,19 @@
         <v>0.26900000000000002</v>
       </c>
       <c r="U8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27300000000000002</v>
       </c>
       <c r="V8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18650000000000003</v>
       </c>
       <c r="W8">
-        <f>$N$12*(V8*V8)+$N$13*(V8)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.91198054927500016</v>
       </c>
       <c r="X8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.559902746375001</v>
       </c>
     </row>
@@ -2092,19 +2092,19 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="U9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26900000000000002</v>
       </c>
       <c r="V9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18250000000000002</v>
       </c>
       <c r="W9">
-        <f>$N$12*(V9*V9)+$N$13*(V9)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.89129585687500013</v>
       </c>
       <c r="X9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4564792843750007</v>
       </c>
     </row>
@@ -2122,19 +2122,19 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="U10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27200000000000002</v>
       </c>
       <c r="V10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18550000000000003</v>
       </c>
       <c r="W10">
-        <f>$N$12*(V10*V10)+$N$13*(V10)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.90680220647500009</v>
       </c>
       <c r="X10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.534011032375</v>
       </c>
     </row>
@@ -2155,19 +2155,19 @@
         <v>0.25700000000000001</v>
       </c>
       <c r="U11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25900000000000001</v>
       </c>
       <c r="V11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17250000000000001</v>
       </c>
       <c r="W11">
-        <f>$N$12*(V11*V11)+$N$13*(V11)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.83991871187500011</v>
       </c>
       <c r="X11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.1995935593750007</v>
       </c>
     </row>
@@ -2206,19 +2206,19 @@
         <v>0.26100000000000001</v>
       </c>
       <c r="U12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26450000000000001</v>
       </c>
       <c r="V12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17800000000000002</v>
       </c>
       <c r="W12">
-        <f>$N$12*(V12*V12)+$N$13*(V12)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.86811699160000011</v>
       </c>
       <c r="X12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3405849580000009</v>
       </c>
     </row>
@@ -2259,19 +2259,19 @@
         <v>0.26100000000000001</v>
       </c>
       <c r="U13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25950000000000001</v>
       </c>
       <c r="V13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17300000000000001</v>
       </c>
       <c r="W13">
-        <f>$N$12*(V13*V13)+$N$13*(V13)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.84247621710000009</v>
       </c>
       <c r="X13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.2123810855000006</v>
       </c>
     </row>
@@ -2283,11 +2283,11 @@
         <v>0.64400000000000002</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G20" si="3">AVERAGE(E14:F14)</f>
+        <f t="shared" ref="G14:G20" si="4">AVERAGE(E14:F14)</f>
         <v>0.62850000000000006</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:H20" si="4">G14-$G$20</f>
+        <f t="shared" ref="H14:H20" si="5">G14-$G$20</f>
         <v>0.54200000000000004</v>
       </c>
       <c r="I14">
@@ -2312,19 +2312,19 @@
         <v>0.26400000000000001</v>
       </c>
       <c r="U14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25700000000000001</v>
       </c>
       <c r="V14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17050000000000001</v>
       </c>
       <c r="W14">
-        <f>$N$12*(V14*V14)+$N$13*(V14)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.82970064047500014</v>
       </c>
       <c r="X14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.148503202375001</v>
       </c>
     </row>
@@ -2336,11 +2336,11 @@
         <v>0.46500000000000002</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.47050000000000003</v>
       </c>
       <c r="H15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.38400000000000001</v>
       </c>
       <c r="I15">
@@ -2359,19 +2359,19 @@
         <v>0.28799999999999998</v>
       </c>
       <c r="U15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.309</v>
       </c>
       <c r="V15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2225</v>
       </c>
       <c r="W15">
-        <f>$N$12*(V15*V15)+$N$13*(V15)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>1.101584236875</v>
       </c>
       <c r="X15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.5079211843750002</v>
       </c>
     </row>
@@ -2383,11 +2383,11 @@
         <v>0.41199999999999998</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.40900000000000003</v>
       </c>
       <c r="H16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32250000000000001</v>
       </c>
       <c r="I16">
@@ -2406,19 +2406,19 @@
         <v>0.27900000000000003</v>
       </c>
       <c r="U16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="V16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18850000000000003</v>
       </c>
       <c r="W16">
-        <f>$N$12*(V16*V16)+$N$13*(V16)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.92235157427500014</v>
       </c>
       <c r="X16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.6117578713750005</v>
       </c>
     </row>
@@ -2430,11 +2430,11 @@
         <v>0.26600000000000001</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.26700000000000002</v>
       </c>
       <c r="H17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.18050000000000002</v>
       </c>
       <c r="I17">
@@ -2453,19 +2453,19 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="U17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26350000000000001</v>
       </c>
       <c r="V17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17700000000000002</v>
       </c>
       <c r="W17">
-        <f>$N$12*(V17*V17)+$N$13*(V17)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.86297927710000011</v>
       </c>
       <c r="X17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3148963855000009</v>
       </c>
     </row>
@@ -2477,11 +2477,11 @@
         <v>0.182</v>
       </c>
       <c r="G18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.183</v>
       </c>
       <c r="H18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6500000000000002E-2</v>
       </c>
       <c r="I18">
@@ -2500,19 +2500,19 @@
         <v>0.27700000000000002</v>
       </c>
       <c r="U18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26350000000000001</v>
       </c>
       <c r="V18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17700000000000002</v>
       </c>
       <c r="W18">
-        <f>$N$12*(V18*V18)+$N$13*(V18)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.86297927710000011</v>
       </c>
       <c r="X18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3148963855000009</v>
       </c>
     </row>
@@ -2524,11 +2524,11 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.14250000000000002</v>
       </c>
       <c r="H19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.6000000000000022E-2</v>
       </c>
       <c r="I19">
@@ -2547,19 +2547,19 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="U19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26550000000000001</v>
       </c>
       <c r="V19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17900000000000002</v>
       </c>
       <c r="W19">
-        <f>$N$12*(V19*V19)+$N$13*(V19)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.87325948590000013</v>
       </c>
       <c r="X19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3662974295000003</v>
       </c>
     </row>
@@ -2571,11 +2571,11 @@
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.6499999999999994E-2</v>
       </c>
       <c r="H20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I20">
@@ -2594,19 +2594,19 @@
         <v>0.27900000000000003</v>
       </c>
       <c r="U20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27750000000000002</v>
       </c>
       <c r="V20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19100000000000003</v>
       </c>
       <c r="W20">
-        <f>$N$12*(V20*V20)+$N$13*(V20)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.93534224190000026</v>
       </c>
       <c r="X20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.6767112095000014</v>
       </c>
     </row>
@@ -2624,19 +2624,19 @@
         <v>0.26600000000000001</v>
       </c>
       <c r="U21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25650000000000001</v>
       </c>
       <c r="V21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17</v>
       </c>
       <c r="W21">
-        <f>$N$12*(V21*V21)+$N$13*(V21)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.82714911000000013</v>
       </c>
       <c r="X21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.1357455500000011</v>
       </c>
     </row>
@@ -2654,19 +2654,19 @@
         <v>0.28199999999999997</v>
       </c>
       <c r="U22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26900000000000002</v>
       </c>
       <c r="V22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18250000000000002</v>
       </c>
       <c r="W22">
-        <f>$N$12*(V22*V22)+$N$13*(V22)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.89129585687500013</v>
       </c>
       <c r="X22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4564792843750007</v>
       </c>
     </row>
@@ -2684,19 +2684,19 @@
         <v>0.255</v>
       </c>
       <c r="U23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2525</v>
       </c>
       <c r="V23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16600000000000001</v>
       </c>
       <c r="W23">
-        <f>$N$12*(V23*V23)+$N$13*(V23)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.80677988440000004</v>
       </c>
       <c r="X23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0338994220000002</v>
       </c>
     </row>
@@ -2714,19 +2714,19 @@
         <v>0.27</v>
       </c>
       <c r="U24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26800000000000002</v>
       </c>
       <c r="V24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18150000000000002</v>
       </c>
       <c r="W24">
-        <f>$N$12*(V24*V24)+$N$13*(V24)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.88613663327500014</v>
       </c>
       <c r="X24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.430683166375001</v>
       </c>
     </row>
@@ -2744,19 +2744,19 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="U25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27900000000000003</v>
       </c>
       <c r="V25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19250000000000003</v>
       </c>
       <c r="W25">
-        <f>$N$12*(V25*V25)+$N$13*(V25)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.94315098187500013</v>
       </c>
       <c r="X25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.7157549093750006</v>
       </c>
     </row>
@@ -2774,19 +2774,19 @@
         <v>0.29899999999999999</v>
       </c>
       <c r="U26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27349999999999997</v>
       </c>
       <c r="V26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18699999999999997</v>
       </c>
       <c r="W26">
-        <f>$N$12*(V26*V26)+$N$13*(V26)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.91457151309999984</v>
       </c>
       <c r="X26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5728575654999997</v>
       </c>
     </row>
@@ -2804,19 +2804,19 @@
         <v>0.309</v>
       </c>
       <c r="U27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30549999999999999</v>
       </c>
       <c r="V27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.219</v>
       </c>
       <c r="W27">
-        <f>$N$12*(V27*V27)+$N$13*(V27)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>1.0828786938999999</v>
       </c>
       <c r="X27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.4143934694999993</v>
       </c>
     </row>
@@ -2834,19 +2834,19 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="U28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29099999999999998</v>
       </c>
       <c r="V28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20449999999999999</v>
       </c>
       <c r="W28">
-        <f>$N$12*(V28*V28)+$N$13*(V28)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>1.0060080654749999</v>
       </c>
       <c r="X28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.0300403273749996</v>
       </c>
     </row>
@@ -2864,19 +2864,19 @@
         <v>0.29199999999999998</v>
       </c>
       <c r="U29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28149999999999997</v>
       </c>
       <c r="V29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19499999999999998</v>
       </c>
       <c r="W29">
-        <f>$N$12*(V29*V29)+$N$13*(V29)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.9561894474999999</v>
       </c>
       <c r="X29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.7809472374999995</v>
       </c>
     </row>
@@ -2894,19 +2894,19 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="U30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3075</v>
       </c>
       <c r="V30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.221</v>
       </c>
       <c r="W30">
-        <f>$N$12*(V30*V30)+$N$13*(V30)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>1.0935604058999999</v>
       </c>
       <c r="X30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.4678020294999996</v>
       </c>
     </row>
@@ -2924,19 +2924,19 @@
         <v>0.156</v>
       </c>
       <c r="U31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23499999999999999</v>
       </c>
       <c r="V31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14849999999999999</v>
       </c>
       <c r="W31">
-        <f>$N$12*(V31*V31)+$N$13*(V31)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.71856372227499998</v>
       </c>
       <c r="X31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5928186113749998</v>
       </c>
     </row>
@@ -2954,19 +2954,19 @@
         <v>0.28199999999999997</v>
       </c>
       <c r="U32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28849999999999998</v>
       </c>
       <c r="V32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20199999999999999</v>
       </c>
       <c r="W32">
-        <f>$N$12*(V32*V32)+$N$13*(V32)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.9928560796</v>
       </c>
       <c r="X32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9642803979999996</v>
       </c>
     </row>
@@ -2984,19 +2984,19 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="U33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29749999999999999</v>
       </c>
       <c r="V33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21099999999999999</v>
       </c>
       <c r="W33">
-        <f>$N$12*(V33*V33)+$N$13*(V33)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>1.0403430378999998</v>
       </c>
       <c r="X33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.2017151894999989</v>
       </c>
     </row>
@@ -3014,19 +3014,19 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="U34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="V34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21249999999999999</v>
       </c>
       <c r="W34">
-        <f>$N$12*(V34*V34)+$N$13*(V34)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>1.048295171875</v>
       </c>
       <c r="X34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.2414758593749999</v>
       </c>
     </row>
@@ -3044,19 +3044,19 @@
         <v>0.28599999999999998</v>
       </c>
       <c r="U35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28749999999999998</v>
       </c>
       <c r="V35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20099999999999998</v>
       </c>
       <c r="W35">
-        <f>$N$12*(V35*V35)+$N$13*(V35)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>0.98760364989999994</v>
       </c>
       <c r="X35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9380182494999998</v>
       </c>
     </row>
@@ -3074,19 +3074,19 @@
         <v>0.30199999999999999</v>
       </c>
       <c r="U36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29449999999999998</v>
       </c>
       <c r="V36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20799999999999999</v>
       </c>
       <c r="W36">
-        <f>$N$12*(V36*V36)+$N$13*(V36)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>1.0244710335999998</v>
       </c>
       <c r="X36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.1223551679999986</v>
       </c>
     </row>
@@ -3104,19 +3104,19 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="U37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33050000000000002</v>
       </c>
       <c r="V37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24400000000000002</v>
       </c>
       <c r="W37">
-        <f>$N$12*(V37*V37)+$N$13*(V37)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>1.2177742864000001</v>
       </c>
       <c r="X37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0888714320000004</v>
       </c>
     </row>
@@ -3134,19 +3134,19 @@
         <v>0.309</v>
       </c>
       <c r="U38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.31</v>
       </c>
       <c r="V38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2235</v>
       </c>
       <c r="W38">
-        <f>$N$12*(V38*V38)+$N$13*(V38)+$N$14</f>
+        <f t="shared" si="0"/>
         <v>1.1069394322749999</v>
       </c>
       <c r="X38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.534697161375</v>
       </c>
     </row>

--- a/Protein Assays/HNM WB Protein Assay.xlsx
+++ b/Protein Assays/HNM WB Protein Assay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/HNM/Protein Assays/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="8_{A366A24B-99D9-49E4-B71B-B0956D72CEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53A2D85B-83A9-407A-98A7-7316C6055E52}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="8_{A366A24B-99D9-49E4-B71B-B0956D72CEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89D18570-E57B-4E12-971E-63B438485CBF}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="720" windowWidth="19035" windowHeight="14880" xr2:uid="{A72CBACF-C73F-4B89-8D80-3E38C5F68AA3}"/>
+    <workbookView xWindow="9765" yWindow="120" windowWidth="19035" windowHeight="14880" xr2:uid="{A72CBACF-C73F-4B89-8D80-3E38C5F68AA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1555,7 +1555,7 @@
   <dimension ref="C1:X38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3:X38"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,7 +1968,7 @@
         <v>0.16250000000000001</v>
       </c>
       <c r="W7">
-        <f t="shared" si="0"/>
+        <f>$N$12*(V7*V7)+$N$13*(V7)+$N$14</f>
         <v>0.78901954687499998</v>
       </c>
       <c r="X7">
@@ -2030,7 +2030,7 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="V8">
-        <f t="shared" si="2"/>
+        <f>U8-$G$20</f>
         <v>0.18650000000000003</v>
       </c>
       <c r="W8">
